--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Dev\Tabletop\FortressAssault\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mount\Documents\GitHub\FortressAssault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC30FE9A-6A0E-4CCC-AFC7-9D779289EED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707AAFA-B0C8-4493-A98D-B75F62A8A5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="3720" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{82040821-2531-4F5B-AFD2-3D006C6F9376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{82040821-2531-4F5B-AFD2-3D006C6F9376}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173E90CF-FC1F-498C-B2F4-3296508F60D5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC283B8D-92AE-4614-BDDB-868895F1DB14}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1419,7 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1432,8 +1432,11 @@
       <c r="E1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -1444,11 +1447,13 @@
         <v>1.5</v>
       </c>
       <c r="E2">
-        <f>C2*D2</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1459,11 +1464,13 @@
         <v>1.5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">C3*D3</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -1474,11 +1481,14 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E9" si="0">C4*D4</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -1492,8 +1502,11 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -1507,8 +1520,11 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1522,8 +1538,11 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -1537,8 +1556,11 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1551,6 +1573,9 @@
       <c r="E9">
         <f t="shared" si="0"/>
         <v>600</v>
+      </c>
+      <c r="F9">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mount\Documents\GitHub\FortressAssault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8707AAFA-B0C8-4493-A98D-B75F62A8A5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4AE906-C2CE-4C9C-BC8B-D3B2A42DADD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{82040821-2531-4F5B-AFD2-3D006C6F9376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{82040821-2531-4F5B-AFD2-3D006C6F9376}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Research Lab</t>
+  </si>
+  <si>
+    <t>Cost (2.2)</t>
   </si>
 </sst>
 </file>
@@ -689,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7230DDBD-59E6-4325-BFE7-B88819EC0783}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,14 +704,15 @@
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="39.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -739,11 +743,14 @@
       <c r="J1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -763,7 +770,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -783,7 +790,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -803,7 +810,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -823,7 +830,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -843,7 +850,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
@@ -860,7 +867,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -878,7 +885,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -896,7 +903,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -914,7 +921,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -933,7 +940,7 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -952,7 +959,7 @@
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -971,7 +978,7 @@
       </c>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -990,7 +997,7 @@
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1009,7 +1016,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1028,7 +1035,7 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1096,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1108,11 +1115,11 @@
       <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1128,11 +1135,11 @@
       <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1187,11 +1194,11 @@
       <c r="I23" s="3">
         <v>250</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1211,7 +1218,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1228,7 +1235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1293,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173E90CF-FC1F-498C-B2F4-3296508F60D5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC283B8D-92AE-4614-BDDB-868895F1DB14}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1426,7 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1435,8 +1442,11 @@
       <c r="F1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1462,11 @@
       <c r="F2">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1469,8 +1482,11 @@
       <c r="F3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -1481,14 +1497,17 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E9" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E9" si="0">C4*D4</f>
         <v>20</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -1505,8 +1524,11 @@
       <c r="F5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -1523,8 +1545,11 @@
       <c r="F6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1541,8 +1566,11 @@
       <c r="F7">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -1559,8 +1587,11 @@
       <c r="F8">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1576,6 +1607,9 @@
       </c>
       <c r="F9">
         <v>350</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
